--- a/Docs/事件資料格式.xlsx
+++ b/Docs/事件資料格式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t>事件ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,19 +28,19 @@
   </si>
   <si>
     <t>檢查標記</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>檢查數值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>檢查物品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>檢查技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>檢查NPC狀態</t>
@@ -48,43 +48,43 @@
   </si>
   <si>
     <t>觸發對話</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>傳送地圖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>給予標記</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>給予數值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>給予物品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>給予技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>開啟動畫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>撥放音樂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>觸發戰鬥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>觸發移動</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NPC出現消失</t>
@@ -151,6 +151,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>數值的值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,15 +319,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>事件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一開始是否出現</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>動畫中是否看到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否出現</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到底是什麼意思？？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +347,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -342,6 +361,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -446,32 +473,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -770,11 +803,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -789,18 +822,20 @@
     <col min="9" max="9" width="8.75" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.75" style="7" customWidth="1"/>
     <col min="11" max="11" width="8.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="11.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="11.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="11.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="11.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="11.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="11.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="11.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="11.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="11.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="11.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.25" style="6" bestFit="1" customWidth="1"/>
     <col min="36" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -815,100 +850,100 @@
         <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="U1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="W1" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="X1" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="Y1" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI1" s="4" t="s">
         <v>62</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -920,10 +955,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E6"/>
+  <dimension ref="A2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -932,18 +967,18 @@
     <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -951,16 +986,17 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
         <v>71</v>
       </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -974,7 +1010,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -985,7 +1021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1002,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1014,12 +1050,12 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="C1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1030,7 +1066,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1047,7 +1083,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1058,7 +1094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1066,13 +1102,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1086,7 +1122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1097,7 +1133,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1108,7 +1144,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1119,7 +1155,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1127,32 +1163,50 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="10" t="s">
         <v>38</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1164,36 +1218,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" t="s">
-        <v>76</v>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
